--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342951.7125289321</v>
+        <v>222098.6454585081</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3800630.471584482</v>
+        <v>3800630.471584481</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81.28802348610976</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>92.28885500239529</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,49 +1384,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>92.28885500239529</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>92.28885500239529</v>
-      </c>
-      <c r="I11" t="n">
-        <v>92.28885500239529</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>23.78681539902033</v>
-      </c>
-      <c r="R11" t="n">
-        <v>92.28885500239529</v>
-      </c>
-      <c r="S11" t="n">
-        <v>57.50120808708941</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>92.28885500239529</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>84.61046744136135</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>92.28885500239529</v>
       </c>
-      <c r="T12" t="n">
-        <v>92.28885500239529</v>
-      </c>
-      <c r="U12" t="n">
-        <v>40.62972820115284</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>74.53940094486231</v>
       </c>
     </row>
     <row r="13">
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>57.50120808708941</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>92.28885500239531</v>
       </c>
       <c r="H14" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>57.50120808708945</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>14.42701010228137</v>
       </c>
       <c r="R15" t="n">
-        <v>84.61046744136135</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>92.28885500239531</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
+        <v>66.86101338382841</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>92.28885500239531</v>
-      </c>
-      <c r="U15" t="n">
-        <v>40.62972820115291</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>57.63950041187345</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>92.40082497114798</v>
       </c>
       <c r="S17" t="n">
-        <v>57.63950041187345</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,76 +1922,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>92.40082497114798</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>92.40082497114798</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>33.89110334874525</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>47.49554328584184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R20" t="n">
-        <v>81.38664663458711</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="S20" t="n">
         <v>92.40082497114798</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>92.40082497114798</v>
+        <v>57.63950041187351</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,55 +2174,55 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>92.40082497114798</v>
       </c>
-      <c r="H21" t="n">
+      <c r="T21" t="n">
         <v>92.40082497114798</v>
       </c>
-      <c r="I21" t="n">
-        <v>65.65068379064653</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>84.59826427738969</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>23.53852353769889</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>23.74714622271364</v>
+      </c>
+      <c r="R23" t="n">
+        <v>57.52307403836439</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="C23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D23" t="n">
+      <c r="Y23" t="n">
         <v>92.51279493990077</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>81.27022026107805</v>
       </c>
     </row>
     <row r="24">
@@ -2399,14 +2399,14 @@
         <v>92.51279493990077</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>81.48526978306461</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="Y24" t="n">
         <v>92.51279493990077</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2557,19 +2557,19 @@
         <v>92.51279493990077</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.98883196809552</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>32.53424207026885</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.51279493990077</v>
+        <v>81.27022026107805</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.08334875144099</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>67.08334875144092</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>81.27022026107799</v>
+      </c>
+      <c r="V29" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="I29" t="n">
-        <v>56.28138829298245</v>
-      </c>
-      <c r="J29" t="n">
-        <v>24.98883196809552</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>81.4852697830646</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>14.4019210316236</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>67.08334875144099</v>
       </c>
       <c r="V30" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="Y30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,55 +3028,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>57.52307403836434</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>23.74714622271364</v>
+      </c>
+      <c r="R32" t="n">
         <v>92.51279493990077</v>
-      </c>
-      <c r="F32" t="n">
-        <v>56.28138829298245</v>
-      </c>
-      <c r="G32" t="n">
-        <v>92.51279493990077</v>
-      </c>
-      <c r="H32" t="n">
-        <v>92.51279493990077</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>24.98883196809552</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3110,73 +3110,73 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>81.48526978306461</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D33" t="n">
+      <c r="W33" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>81.48526978306461</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="Y33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.27022026107798</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>57.52307403836434</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>23.74714622271364</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>92.51279493990077</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>92.51279493990077</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="C36" t="n">
-        <v>81.4852697830646</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>81.48526978306461</v>
       </c>
     </row>
     <row r="37">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="E38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="F38" t="n">
-        <v>92.51279493990074</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.51279493990074</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>81.27022026107805</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="W39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X39" t="n">
-        <v>92.51279493990074</v>
+        <v>81.4852697830646</v>
       </c>
       <c r="Y39" t="n">
-        <v>81.48526978306454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.38664663458719</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>81.38664663458717</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V41" t="n">
         <v>92.40082497114798</v>
       </c>
       <c r="W41" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>81.38664663458708</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="U42" t="n">
         <v>92.40082497114798</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>92.40082497114798</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>57.63950041187345</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>92.40082497114798</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>92.40082497114798</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>66.98472560296351</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>92.40082497114798</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>81.38664663458711</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.934354350596</v>
       </c>
       <c r="C11" t="n">
         <v>193.8252397181619</v>
       </c>
       <c r="D11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="E11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="F11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="G11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="H11" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="I11" t="n">
         <v>7.383108400191624</v>
@@ -5062,31 +5062,31 @@
         <v>369.1554200095812</v>
       </c>
       <c r="Q11" t="n">
-        <v>345.1283337479445</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="R11" t="n">
-        <v>251.9072680889593</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8252397181619</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="T11" t="n">
-        <v>193.8252397181619</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="U11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.934354350596</v>
       </c>
       <c r="V11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.934354350596</v>
       </c>
       <c r="W11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.934354350596</v>
       </c>
       <c r="X11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.934354350596</v>
       </c>
       <c r="Y11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.934354350596</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="C12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="D12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="E12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="F12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="G12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="H12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="I12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="J12" t="n">
         <v>7.383108400191624</v>
       </c>
       <c r="K12" t="n">
-        <v>7.383108400191624</v>
+        <v>28.16047167062938</v>
       </c>
       <c r="L12" t="n">
-        <v>81.64337855833423</v>
+        <v>102.420741828772</v>
       </c>
       <c r="M12" t="n">
-        <v>173.0093450107056</v>
+        <v>193.7867082811433</v>
       </c>
       <c r="N12" t="n">
-        <v>264.3753114630769</v>
+        <v>285.1526747335147</v>
       </c>
       <c r="O12" t="n">
-        <v>315.8452207473479</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="P12" t="n">
         <v>369.1554200095812</v>
@@ -5147,25 +5147,25 @@
         <v>269.1175639048915</v>
       </c>
       <c r="S12" t="n">
+        <v>269.1175639048915</v>
+      </c>
+      <c r="T12" t="n">
+        <v>269.1175639048915</v>
+      </c>
+      <c r="U12" t="n">
+        <v>269.1175639048915</v>
+      </c>
+      <c r="V12" t="n">
+        <v>269.1175639048915</v>
+      </c>
+      <c r="W12" t="n">
+        <v>269.1175639048915</v>
+      </c>
+      <c r="X12" t="n">
         <v>175.8964982459064</v>
       </c>
-      <c r="T12" t="n">
-        <v>82.67543258692125</v>
-      </c>
-      <c r="U12" t="n">
-        <v>41.63530309080726</v>
-      </c>
-      <c r="V12" t="n">
-        <v>41.63530309080726</v>
-      </c>
-      <c r="W12" t="n">
-        <v>41.63530309080726</v>
-      </c>
-      <c r="X12" t="n">
-        <v>41.63530309080726</v>
-      </c>
       <c r="Y12" t="n">
-        <v>41.63530309080726</v>
+        <v>100.6041740591768</v>
       </c>
     </row>
     <row r="13">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="C14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="D14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="E14" t="n">
-        <v>287.0463053771472</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="F14" t="n">
-        <v>193.825239718162</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="G14" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="H14" t="n">
         <v>7.383108400191625</v>
@@ -5311,19 +5311,19 @@
         <v>345.1283337479446</v>
       </c>
       <c r="U14" t="n">
-        <v>345.1283337479446</v>
+        <v>251.9072680889594</v>
       </c>
       <c r="V14" t="n">
-        <v>345.1283337479446</v>
+        <v>158.6862024299742</v>
       </c>
       <c r="W14" t="n">
-        <v>345.1283337479446</v>
+        <v>158.6862024299742</v>
       </c>
       <c r="X14" t="n">
-        <v>345.1283337479446</v>
+        <v>158.6862024299742</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591768</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="C15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="D15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="E15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="F15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="G15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="H15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J15" t="n">
         <v>7.383108400191625</v>
@@ -5381,28 +5381,28 @@
         <v>354.5826825325294</v>
       </c>
       <c r="R15" t="n">
-        <v>269.1175639048917</v>
+        <v>354.5826825325294</v>
       </c>
       <c r="S15" t="n">
-        <v>175.8964982459065</v>
+        <v>354.5826825325294</v>
       </c>
       <c r="T15" t="n">
-        <v>82.67543258692132</v>
+        <v>354.5826825325294</v>
       </c>
       <c r="U15" t="n">
-        <v>41.63530309080726</v>
+        <v>261.3616168735442</v>
       </c>
       <c r="V15" t="n">
-        <v>41.63530309080726</v>
+        <v>193.825239718162</v>
       </c>
       <c r="W15" t="n">
-        <v>41.63530309080726</v>
+        <v>193.825239718162</v>
       </c>
       <c r="X15" t="n">
-        <v>41.63530309080726</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.63530309080726</v>
+        <v>100.6041740591768</v>
       </c>
     </row>
     <row r="16">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="C17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="D17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="E17" t="n">
-        <v>7.392065997691839</v>
+        <v>158.947950222966</v>
       </c>
       <c r="F17" t="n">
-        <v>7.392065997691839</v>
+        <v>158.947950222966</v>
       </c>
       <c r="G17" t="n">
-        <v>7.392065997691839</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="H17" t="n">
         <v>7.392065997691839</v>
@@ -5542,25 +5542,25 @@
         <v>252.2821168604893</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0603992727383</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="T17" t="n">
-        <v>100.7262326352151</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="U17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="V17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="W17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="X17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.392065997691839</v>
+        <v>252.2821168604893</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.2938369987436</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="C18" t="n">
-        <v>134.9596703612204</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="D18" t="n">
-        <v>41.62550372369714</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="E18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J18" t="n">
         <v>7.392065997691839</v>
       </c>
       <c r="K18" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127635</v>
       </c>
       <c r="L18" t="n">
-        <v>81.69458512843215</v>
+        <v>102.5033690720167</v>
       </c>
       <c r="M18" t="n">
-        <v>134.2215717271241</v>
+        <v>193.9801857934532</v>
       </c>
       <c r="N18" t="n">
-        <v>225.6983884485606</v>
+        <v>285.4570025148897</v>
       </c>
       <c r="O18" t="n">
         <v>316.2559440569822</v>
@@ -5627,19 +5627,19 @@
         <v>369.6032998845919</v>
       </c>
       <c r="U18" t="n">
-        <v>369.6032998845919</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V18" t="n">
-        <v>369.6032998845919</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="W18" t="n">
-        <v>369.6032998845919</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="X18" t="n">
-        <v>276.2691332470687</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.2938369987436</v>
+        <v>194.0603992727383</v>
       </c>
     </row>
     <row r="19">
@@ -5773,22 +5773,22 @@
         <v>369.603299884592</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.6032998845919</v>
+        <v>345.6162834980125</v>
       </c>
       <c r="R20" t="n">
-        <v>287.3945659102615</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="S20" t="n">
-        <v>194.0603992727383</v>
+        <v>158.9479502229661</v>
       </c>
       <c r="T20" t="n">
-        <v>194.0603992727383</v>
+        <v>158.9479502229661</v>
       </c>
       <c r="U20" t="n">
-        <v>194.0603992727383</v>
+        <v>65.61378358544286</v>
       </c>
       <c r="V20" t="n">
-        <v>100.7262326352151</v>
+        <v>65.61378358544286</v>
       </c>
       <c r="W20" t="n">
         <v>7.392065997691839</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G21" t="n">
-        <v>167.0400546459691</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H21" t="n">
-        <v>73.70588800844591</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I21" t="n">
         <v>7.392065997691839</v>
@@ -5834,16 +5834,16 @@
         <v>7.392065997691839</v>
       </c>
       <c r="K21" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127635</v>
       </c>
       <c r="L21" t="n">
-        <v>81.69458512843215</v>
+        <v>102.5033690720167</v>
       </c>
       <c r="M21" t="n">
-        <v>173.1714018498687</v>
+        <v>193.9801857934532</v>
       </c>
       <c r="N21" t="n">
-        <v>264.6482185713052</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O21" t="n">
         <v>316.2559440569822</v>
@@ -5855,28 +5855,28 @@
         <v>369.6032998845919</v>
       </c>
       <c r="R21" t="n">
-        <v>284.1505076852084</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S21" t="n">
-        <v>284.1505076852084</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="T21" t="n">
-        <v>284.1505076852084</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="U21" t="n">
-        <v>284.1505076852084</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="V21" t="n">
-        <v>260.3742212834924</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="W21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="22">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.2955588273148</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C23" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D23" t="n">
         <v>7.401023595192062</v>
@@ -6010,31 +6010,31 @@
         <v>369.8339580202227</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336433</v>
       </c>
       <c r="R23" t="n">
-        <v>369.8339580202227</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="S23" t="n">
-        <v>369.8339580202227</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="T23" t="n">
-        <v>369.8339580202227</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="U23" t="n">
-        <v>369.8339580202227</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="V23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="W23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="X23" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="Y23" t="n">
-        <v>287.7428264433762</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="24">
@@ -6047,10 +6047,10 @@
         <v>100.8482912112535</v>
       </c>
       <c r="C24" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D24" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E24" t="n">
         <v>7.401023595192062</v>
@@ -6095,22 +6095,22 @@
         <v>370.0511797596031</v>
       </c>
       <c r="S24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="T24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="U24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="V24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="W24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="X24" t="n">
         <v>287.7428264433762</v>
-      </c>
-      <c r="T24" t="n">
-        <v>287.7428264433762</v>
-      </c>
-      <c r="U24" t="n">
-        <v>194.2955588273148</v>
-      </c>
-      <c r="V24" t="n">
-        <v>194.2955588273148</v>
-      </c>
-      <c r="W24" t="n">
-        <v>194.2955588273148</v>
-      </c>
-      <c r="X24" t="n">
-        <v>194.2955588273148</v>
       </c>
       <c r="Y24" t="n">
         <v>194.2955588273148</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.0895356234712</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="C26" t="n">
-        <v>32.64226800740977</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="D26" t="n">
-        <v>32.64226800740977</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="E26" t="n">
-        <v>32.64226800740977</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="F26" t="n">
-        <v>32.64226800740977</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J26" t="n">
         <v>7.401023595192062</v>
@@ -6247,31 +6247,31 @@
         <v>369.8339580202227</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="R26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="S26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="T26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="U26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="V26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="W26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="X26" t="n">
-        <v>312.9840708555939</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="Y26" t="n">
-        <v>219.5368032395326</v>
+        <v>287.7428264433762</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D27" t="n">
         <v>7.401023595192062</v>
@@ -6311,10 +6311,10 @@
         <v>28.20980753877658</v>
       </c>
       <c r="L27" t="n">
-        <v>42.9709343425682</v>
+        <v>102.5123266695169</v>
       </c>
       <c r="M27" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N27" t="n">
         <v>226.1462683235717</v>
@@ -6332,25 +6332,25 @@
         <v>355.5037847781651</v>
       </c>
       <c r="S27" t="n">
-        <v>287.7428264433762</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="T27" t="n">
-        <v>194.2955588273148</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="U27" t="n">
+        <v>355.5037847781651</v>
+      </c>
+      <c r="V27" t="n">
+        <v>262.0565171621037</v>
+      </c>
+      <c r="W27" t="n">
+        <v>168.6092495460423</v>
+      </c>
+      <c r="X27" t="n">
         <v>100.8482912112535</v>
       </c>
-      <c r="V27" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7.401023595192062</v>
-      </c>
       <c r="Y27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H29" t="n">
-        <v>89.49215517203851</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I29" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J29" t="n">
         <v>7.401023595192062</v>
@@ -6490,25 +6490,25 @@
         <v>369.8339580202227</v>
       </c>
       <c r="S29" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041613</v>
       </c>
       <c r="T29" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041613</v>
       </c>
       <c r="U29" t="n">
-        <v>369.8339580202227</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="V29" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="W29" t="n">
-        <v>369.8339580202227</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X29" t="n">
-        <v>369.8339580202227</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.3866904041613</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>183.1566445274803</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C30" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D30" t="n">
         <v>7.401023595192062</v>
@@ -6548,7 +6548,7 @@
         <v>28.20980753877658</v>
       </c>
       <c r="L30" t="n">
-        <v>102.5123266695169</v>
+        <v>42.9709343425682</v>
       </c>
       <c r="M30" t="n">
         <v>134.55860133307</v>
@@ -6563,31 +6563,31 @@
         <v>370.0511797596031</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="R30" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="S30" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="T30" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="U30" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="V30" t="n">
-        <v>276.6039121435417</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="W30" t="n">
-        <v>276.6039121435417</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X30" t="n">
-        <v>276.6039121435417</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y30" t="n">
-        <v>183.1566445274803</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>369.8339580202227</v>
+        <v>158.9524064015205</v>
       </c>
       <c r="C32" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="D32" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="E32" t="n">
-        <v>276.3866904041613</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="F32" t="n">
-        <v>219.5368032395326</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="G32" t="n">
-        <v>126.0895356234712</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H32" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I32" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J32" t="n">
         <v>7.401023595192062</v>
@@ -6721,31 +6721,31 @@
         <v>369.8339580202227</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336433</v>
       </c>
       <c r="R32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="S32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="T32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="U32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="V32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="W32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="X32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="Y32" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.2955588273148</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C33" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D33" t="n">
         <v>7.401023595192062</v>
@@ -6803,28 +6803,28 @@
         <v>370.0511797596031</v>
       </c>
       <c r="R33" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="S33" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="T33" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="U33" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="V33" t="n">
-        <v>287.7428264433762</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="W33" t="n">
-        <v>287.7428264433762</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X33" t="n">
-        <v>287.7428264433762</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.2955588273148</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="34">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.8482912112535</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="C35" t="n">
-        <v>7.401023595192062</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="D35" t="n">
-        <v>7.401023595192062</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="E35" t="n">
-        <v>7.401023595192062</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="F35" t="n">
-        <v>7.401023595192062</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="G35" t="n">
         <v>7.401023595192062</v>
@@ -6958,31 +6958,31 @@
         <v>369.8339580202227</v>
       </c>
       <c r="Q35" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336433</v>
       </c>
       <c r="R35" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336433</v>
       </c>
       <c r="S35" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336433</v>
       </c>
       <c r="T35" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="U35" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="V35" t="n">
-        <v>276.3866904041613</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="W35" t="n">
-        <v>276.3866904041613</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="X35" t="n">
-        <v>182.9394227880999</v>
+        <v>252.3996740175819</v>
       </c>
       <c r="Y35" t="n">
-        <v>182.9394227880999</v>
+        <v>158.9524064015205</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.70937691141893</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="C36" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D36" t="n">
         <v>7.401023595192062</v>
@@ -7025,13 +7025,13 @@
         <v>102.5123266695169</v>
       </c>
       <c r="M36" t="n">
-        <v>134.55860133307</v>
+        <v>187.9059571606796</v>
       </c>
       <c r="N36" t="n">
-        <v>226.1462683235717</v>
+        <v>279.4936241511814</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7038239319934</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="P36" t="n">
         <v>370.0511797596031</v>
@@ -7043,25 +7043,25 @@
         <v>370.0511797596031</v>
       </c>
       <c r="S36" t="n">
-        <v>276.6039121435417</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T36" t="n">
-        <v>183.1566445274803</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="U36" t="n">
-        <v>183.1566445274803</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="V36" t="n">
-        <v>183.1566445274803</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="W36" t="n">
-        <v>183.1566445274803</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="X36" t="n">
-        <v>89.70937691141893</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.70937691141893</v>
+        <v>287.7428264433762</v>
       </c>
     </row>
     <row r="37">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="C38" t="n">
         <v>194.2955588273148</v>
       </c>
       <c r="D38" t="n">
-        <v>194.2955588273148</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E38" t="n">
-        <v>100.8482912112534</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K38" t="n">
         <v>21.06227822176931</v>
@@ -7183,7 +7183,7 @@
         <v>74.91203445474531</v>
       </c>
       <c r="M38" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452471</v>
       </c>
       <c r="N38" t="n">
         <v>258.0873684357488</v>
@@ -7198,28 +7198,28 @@
         <v>369.8339580202227</v>
       </c>
       <c r="R38" t="n">
-        <v>276.3866904041613</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="S38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="T38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="U38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202227</v>
       </c>
       <c r="V38" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="W38" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="X38" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433762</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877657</v>
+        <v>28.20980753877658</v>
       </c>
       <c r="L39" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M39" t="n">
-        <v>194.0999936600186</v>
+        <v>134.55860133307</v>
       </c>
       <c r="N39" t="n">
-        <v>226.1462683235716</v>
+        <v>226.1462683235717</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7038239319933</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="S39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T39" t="n">
-        <v>370.051179759603</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="U39" t="n">
-        <v>370.051179759603</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="V39" t="n">
-        <v>276.6039121435416</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="W39" t="n">
-        <v>183.1566445274802</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="X39" t="n">
-        <v>89.70937691141887</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="41">
@@ -7438,25 +7438,25 @@
         <v>369.603299884592</v>
       </c>
       <c r="S41" t="n">
-        <v>369.603299884592</v>
+        <v>287.3945659102615</v>
       </c>
       <c r="T41" t="n">
-        <v>369.603299884592</v>
+        <v>287.3945659102615</v>
       </c>
       <c r="U41" t="n">
-        <v>369.603299884592</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="V41" t="n">
-        <v>276.2691332470688</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="W41" t="n">
-        <v>182.9349666095456</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="X41" t="n">
-        <v>182.9349666095456</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="Y41" t="n">
-        <v>182.9349666095456</v>
+        <v>100.7262326352151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.60079997202223</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C42" t="n">
-        <v>89.60079997202223</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D42" t="n">
         <v>7.392065997691839</v>
@@ -7493,16 +7493,16 @@
         <v>7.392065997691839</v>
       </c>
       <c r="K42" t="n">
-        <v>28.20084994127635</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="L42" t="n">
-        <v>102.5033690720167</v>
+        <v>42.74475500568755</v>
       </c>
       <c r="M42" t="n">
-        <v>193.9801857934532</v>
+        <v>134.2215717271241</v>
       </c>
       <c r="N42" t="n">
-        <v>285.4570025148897</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O42" t="n">
         <v>316.2559440569822</v>
@@ -7520,22 +7520,22 @@
         <v>369.6032998845919</v>
       </c>
       <c r="T42" t="n">
-        <v>369.6032998845919</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="U42" t="n">
-        <v>276.2691332470687</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="V42" t="n">
-        <v>182.9349666095455</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="W42" t="n">
-        <v>182.9349666095455</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="X42" t="n">
-        <v>89.60079997202223</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.60079997202223</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="L43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="M43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="N43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="P43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Q43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="R43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="S43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="T43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="U43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="V43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="W43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G44" t="n">
         <v>7.392065997691839</v>
@@ -7675,7 +7675,7 @@
         <v>287.3945659102615</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0603992727383</v>
+        <v>287.3945659102615</v>
       </c>
       <c r="T44" t="n">
         <v>194.0603992727383</v>
@@ -7684,16 +7684,16 @@
         <v>100.7262326352151</v>
       </c>
       <c r="V44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="W44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.0559049031539</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="C45" t="n">
-        <v>355.0559049031539</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="D45" t="n">
-        <v>261.7217382656307</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="E45" t="n">
-        <v>194.0603992727383</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="F45" t="n">
         <v>100.7262326352151</v>
@@ -7730,49 +7730,49 @@
         <v>7.392065997691839</v>
       </c>
       <c r="K45" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127635</v>
       </c>
       <c r="L45" t="n">
-        <v>81.69458512843215</v>
+        <v>102.5033690720167</v>
       </c>
       <c r="M45" t="n">
-        <v>173.1714018498687</v>
+        <v>134.2215717271241</v>
       </c>
       <c r="N45" t="n">
-        <v>264.6482185713052</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O45" t="n">
-        <v>355.2057741797269</v>
+        <v>316.2559440569822</v>
       </c>
       <c r="P45" t="n">
         <v>369.6032998845919</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="V45" t="n">
-        <v>355.0559049031539</v>
+        <v>287.3945659102615</v>
       </c>
       <c r="W45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="X45" t="n">
-        <v>355.0559049031539</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="Y45" t="n">
-        <v>355.0559049031539</v>
+        <v>100.7262326352151</v>
       </c>
     </row>
     <row r="46">
@@ -22570,13 +22570,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
         <v>4.586202945486093</v>
@@ -22585,13 +22585,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>134.8218408634681</v>
@@ -22652,7 +22652,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>102.9682853879423</v>
@@ -22731,16 +22731,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
         <v>56.93882853040725</v>
@@ -23044,7 +23044,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -23053,13 +23053,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -23120,10 +23120,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -23202,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K10" t="n">
         <v>62.00809140979796</v>
@@ -23217,10 +23217,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>283.9848682848978</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>262.3941866182877</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4644082958837</v>
+        <v>321.1755532934884</v>
       </c>
       <c r="H11" t="n">
-        <v>228.359157996714</v>
+        <v>320.6480129991093</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31484734282297</v>
+        <v>139.6037023452183</v>
       </c>
       <c r="J11" t="n">
         <v>25.02000995425203</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.78681539902033</v>
       </c>
       <c r="R11" t="n">
-        <v>7.819734992939232</v>
+        <v>100.1085899953345</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6279344154658</v>
+        <v>167.1291425025552</v>
       </c>
       <c r="T11" t="n">
         <v>215.0485634068586</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1985865702964</v>
+        <v>158.9097315679011</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>74.24432864747205</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23360,7 +23360,7 @@
         <v>65.65745087436915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.90967274370948</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.12451038844297</v>
+        <v>153.4133653908383</v>
       </c>
       <c r="T12" t="n">
-        <v>103.9113042826869</v>
+        <v>196.2001592850822</v>
       </c>
       <c r="U12" t="n">
-        <v>185.2469438241679</v>
+        <v>225.8766720253207</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>113.4841302010822</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>131.1432948324421</v>
       </c>
     </row>
     <row r="13">
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>324.4291619851724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>314.5871907393162</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>321.1755532934884</v>
       </c>
       <c r="H14" t="n">
-        <v>228.3591579967139</v>
+        <v>320.6480129991093</v>
       </c>
       <c r="I14" t="n">
         <v>139.6037023452183</v>
@@ -23551,10 +23551,10 @@
         <v>215.0485634068586</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1985865702964</v>
+        <v>158.9097315679011</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>235.4634034677396</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>328.7367305689642</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>74.24432864747203</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23597,7 +23597,7 @@
         <v>65.65745087436915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.90967274370948</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.61046744136135</v>
       </c>
       <c r="S15" t="n">
-        <v>61.12451038844296</v>
+        <v>153.4133653908383</v>
       </c>
       <c r="T15" t="n">
-        <v>103.9113042826868</v>
+        <v>196.2001592850822</v>
       </c>
       <c r="U15" t="n">
-        <v>185.2469438241678</v>
+        <v>133.5878170229254</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>165.9395737655969</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>113.4841302010822</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>289.5295451011138</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4640409504305</v>
+        <v>355.8245405385571</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6442509224869</v>
+        <v>228.243425951339</v>
       </c>
       <c r="I17" t="n">
         <v>139.5895402596347</v>
@@ -23782,13 +23782,13 @@
         <v>7.684689760363469</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4812712061675</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T17" t="n">
-        <v>122.6461303809893</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U17" t="n">
-        <v>158.7977322115121</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>74.13235867871936</v>
       </c>
       <c r="C18" t="n">
-        <v>80.30767401716776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>65.24425548425296</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23834,7 +23834,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.89110334874525</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8766590945875</v>
+        <v>133.4758341234395</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>151.4139405148382</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>113.3721602323295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.1871524914625</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>18.69886809692434</v>
+        <v>7.684689760363469</v>
       </c>
       <c r="S20" t="n">
         <v>74.71994664689296</v>
@@ -24025,13 +24025,13 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1985571826601</v>
+        <v>158.7977322115121</v>
       </c>
       <c r="V20" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>256.840143746265</v>
+        <v>291.6014683055395</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.95890279897569</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H21" t="n">
-        <v>10.3332848636929</v>
+        <v>102.7341098348409</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J21" t="n">
         <v>33.89110334874525</v>
@@ -24095,22 +24095,22 @@
         <v>14.4019210316236</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S21" t="n">
-        <v>153.4097146138236</v>
+        <v>61.0088896426756</v>
       </c>
       <c r="T21" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910117</v>
       </c>
       <c r="U21" t="n">
         <v>225.8766590945875</v>
       </c>
       <c r="V21" t="n">
-        <v>209.2620636117264</v>
+        <v>140.3997621782773</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>170.3083365263325</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>262.1702466807822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0855147315115</v>
+        <v>42.56244069314706</v>
       </c>
       <c r="S23" t="n">
         <v>167.1207716180409</v>
@@ -24265,16 +24265,16 @@
         <v>251.1985571826601</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302341</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>277.2183057385682</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.9677183949755</v>
+        <v>293.7251437161528</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>74.02038870996657</v>
       </c>
       <c r="C24" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550017</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24335,13 +24335,13 @@
         <v>84.59826427738969</v>
       </c>
       <c r="S24" t="n">
-        <v>71.92444483075897</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T24" t="n">
         <v>196.1993670621597</v>
       </c>
       <c r="U24" t="n">
-        <v>133.3638641546868</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>124.2877154204129</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>113.1699008374036</v>
       </c>
     </row>
     <row r="25">
@@ -24445,7 +24445,7 @@
         <v>290.2210467235798</v>
       </c>
       <c r="C26" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018106</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105298</v>
       </c>
       <c r="H26" t="n">
         <v>320.6442509224869</v>
@@ -24466,7 +24466,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>24.98883196809552</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R26" t="n">
         <v>100.0855147315115</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>337.1968586082002</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>293.7251437161528</v>
+        <v>304.9677183949755</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473798</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24572,22 +24572,22 @@
         <v>84.59826427738969</v>
       </c>
       <c r="S27" t="n">
-        <v>86.32636586238259</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T27" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U27" t="n">
-        <v>133.3638641546868</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V27" t="n">
         <v>140.2877922095245</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>138.6896364520366</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,13 +24697,13 @@
         <v>413.4640409504305</v>
       </c>
       <c r="H29" t="n">
-        <v>228.1314559825862</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I29" t="n">
-        <v>83.30815196665222</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>24.98883196809552</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>100.0855147315115</v>
       </c>
       <c r="S29" t="n">
-        <v>167.1207716180409</v>
+        <v>74.60797667814018</v>
       </c>
       <c r="T29" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1985571826601</v>
+        <v>169.9283369215821</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302341</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>256.7281737775122</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>293.7251437161528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>65.95979578157416</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>84.59826427738969</v>
@@ -24815,19 +24815,19 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8766590945875</v>
+        <v>158.7933103431465</v>
       </c>
       <c r="V30" t="n">
         <v>140.2877922095245</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>113.2601902635767</v>
       </c>
       <c r="Y30" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24916,31 +24916,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>290.2210467235798</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>272.7600968311068</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>350.594657448729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>320.9512460105298</v>
+        <v>355.9409669120662</v>
       </c>
       <c r="H32" t="n">
-        <v>228.1314559825862</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I32" t="n">
         <v>139.5895402596347</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.98883196809552</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>100.0855147315115</v>
+        <v>7.57271979161068</v>
       </c>
       <c r="S32" t="n">
         <v>167.1207716180409</v>
@@ -24998,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>54.93227062473798</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25043,7 +25043,7 @@
         <v>14.4019210316236</v>
       </c>
       <c r="R33" t="n">
-        <v>84.59826427738969</v>
+        <v>3.112994494325079</v>
       </c>
       <c r="S33" t="n">
         <v>153.4097146138236</v>
@@ -25055,16 +25055,16 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V33" t="n">
-        <v>151.3153173663607</v>
+        <v>140.2877922095245</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>113.2601902635767</v>
       </c>
       <c r="Y33" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.4636214024026</v>
+        <v>290.2210467235798</v>
       </c>
       <c r="C35" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4640409504305</v>
+        <v>355.9409669120662</v>
       </c>
       <c r="H35" t="n">
         <v>320.6442509224869</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>100.0855147315115</v>
@@ -25207,22 +25207,22 @@
         <v>167.1207716180409</v>
       </c>
       <c r="T35" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122365</v>
       </c>
       <c r="U35" t="n">
         <v>251.1985571826601</v>
       </c>
       <c r="V35" t="n">
-        <v>235.2394635302341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>293.7251437161528</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>74.02038870996657</v>
       </c>
       <c r="C36" t="n">
-        <v>91.22322920525114</v>
+        <v>80.19570404841497</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473798</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25283,10 +25283,10 @@
         <v>84.59826427738969</v>
       </c>
       <c r="S36" t="n">
-        <v>60.89691967392281</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T36" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U36" t="n">
         <v>225.8766590945875</v>
@@ -25298,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>113.2601902635767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>124.1974259942398</v>
       </c>
     </row>
     <row r="37">
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>272.7600968311068</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>262.1702466807822</v>
       </c>
       <c r="E38" t="n">
         <v>289.417575132361</v>
       </c>
       <c r="F38" t="n">
-        <v>314.3632508018107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.4640409504305</v>
@@ -25438,10 +25438,10 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R38" t="n">
-        <v>7.572719791610709</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S38" t="n">
-        <v>85.8505513569629</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T38" t="n">
         <v>215.0469553521373</v>
@@ -25450,7 +25450,7 @@
         <v>251.1985571826601</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>246.4820382090568</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25523,7 +25523,7 @@
         <v>153.4097146138236</v>
       </c>
       <c r="T39" t="n">
-        <v>196.1993670621597</v>
+        <v>103.686572122259</v>
       </c>
       <c r="U39" t="n">
         <v>225.8766590945875</v>
@@ -25532,13 +25532,13 @@
         <v>140.2877922095245</v>
       </c>
       <c r="W39" t="n">
-        <v>159.1821882210189</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X39" t="n">
-        <v>113.2601902635767</v>
+        <v>124.2877154204129</v>
       </c>
       <c r="Y39" t="n">
-        <v>124.1974259942398</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.3471950288934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25678,19 +25678,19 @@
         <v>100.0855147315115</v>
       </c>
       <c r="S41" t="n">
-        <v>167.1207716180409</v>
+        <v>85.73412498345378</v>
       </c>
       <c r="T41" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1985571826601</v>
+        <v>158.7977322115121</v>
       </c>
       <c r="V41" t="n">
         <v>235.3514334989869</v>
       </c>
       <c r="W41" t="n">
-        <v>256.840143746265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>66.05841893005167</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25760,7 +25760,7 @@
         <v>153.4097146138236</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910117</v>
       </c>
       <c r="U42" t="n">
         <v>133.4758341234395</v>
@@ -25772,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>113.3721602323295</v>
+        <v>124.3863385688904</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>321.0632159792825</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H44" t="n">
         <v>320.6442509224869</v>
@@ -25915,16 +25915,16 @@
         <v>42.446014319638</v>
       </c>
       <c r="S44" t="n">
-        <v>74.71994664689296</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809893</v>
       </c>
       <c r="U44" t="n">
         <v>158.7977322115121</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>235.3514334989869</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,13 +25949,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>90.66035485243744</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>52.6683874222359</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>43.95890279897569</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.4019210316236</v>
       </c>
       <c r="R45" t="n">
         <v>84.59826427738969</v>
@@ -26003,13 +26003,13 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>151.4139405148381</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897716</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>113.3721602323295</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355469.0647082429</v>
+        <v>355469.0647082428</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305051</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484509</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484509</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484511</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305051</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85802.91214547657</v>
+        <v>85802.91214547656</v>
       </c>
       <c r="C2" t="n">
         <v>85802.91214547656</v>
       </c>
       <c r="D2" t="n">
-        <v>85802.91214547656</v>
+        <v>85802.91214547658</v>
       </c>
       <c r="E2" t="n">
         <v>123046.9839374685</v>
@@ -26328,7 +26328,7 @@
         <v>123046.9839374685</v>
       </c>
       <c r="G2" t="n">
-        <v>123078.4918374823</v>
+        <v>123078.4918374824</v>
       </c>
       <c r="H2" t="n">
         <v>123078.4918374824</v>
@@ -26337,7 +26337,7 @@
         <v>123094.6446283099</v>
       </c>
       <c r="J2" t="n">
-        <v>123094.6446283099</v>
+        <v>123094.6446283098</v>
       </c>
       <c r="K2" t="n">
         <v>123094.6446283098</v>
@@ -26349,13 +26349,13 @@
         <v>123094.6446283098</v>
       </c>
       <c r="N2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283099</v>
       </c>
       <c r="O2" t="n">
         <v>123078.4918374824</v>
       </c>
       <c r="P2" t="n">
-        <v>123078.4918374823</v>
+        <v>123078.4918374824</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308183.8838205544</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7338595810169</v>
+        <v>101.7338595810616</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606070269</v>
+        <v>29.77516606071025</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22998.75182201691</v>
+        <v>22998.75182201692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26450,10 +26450,10 @@
         <v>67.00913363879313</v>
       </c>
       <c r="M4" t="n">
+        <v>67.00913363879312</v>
+      </c>
+      <c r="N4" t="n">
         <v>67.00913363879313</v>
-      </c>
-      <c r="N4" t="n">
-        <v>67.00913363879312</v>
       </c>
       <c r="O4" t="n">
         <v>66.95419777909365</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262980.6742383351</v>
+        <v>-278739.8900324157</v>
       </c>
       <c r="C6" t="n">
-        <v>45203.20958221923</v>
+        <v>29443.99378813862</v>
       </c>
       <c r="D6" t="n">
-        <v>45203.20958221923</v>
+        <v>29443.99378813865</v>
       </c>
       <c r="E6" t="n">
-        <v>-30593.60004933598</v>
+        <v>-44283.70074386151</v>
       </c>
       <c r="F6" t="n">
-        <v>107400.1487159665</v>
+        <v>93710.04802144098</v>
       </c>
       <c r="G6" t="n">
-        <v>107321.041825625</v>
+        <v>93632.69156998911</v>
       </c>
       <c r="H6" t="n">
-        <v>107422.775685206</v>
+        <v>93734.42542957017</v>
       </c>
       <c r="I6" t="n">
-        <v>107402.2906000129</v>
+        <v>93714.83772164526</v>
       </c>
       <c r="J6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770595</v>
       </c>
       <c r="K6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770597</v>
       </c>
       <c r="L6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770594</v>
       </c>
       <c r="M6" t="n">
-        <v>84433.3139440567</v>
+        <v>70745.86106568904</v>
       </c>
       <c r="N6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770598</v>
       </c>
       <c r="O6" t="n">
-        <v>107422.7756852061</v>
+        <v>93734.42542957021</v>
       </c>
       <c r="P6" t="n">
-        <v>107422.775685206</v>
+        <v>93734.42542957017</v>
       </c>
     </row>
   </sheetData>
@@ -26825,7 +26825,7 @@
         <v>92.51279493990077</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O4" t="n">
         <v>92.40082497114798</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09137718147752526</v>
+        <v>0.09137718147758278</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527884</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
         <v>109.1233211798925</v>
@@ -31056,7 +31056,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
         <v>225.7600302817866</v>
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
         <v>23.68487325669467</v>
@@ -31147,13 +31147,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
         <v>12.77776283338877</v>
@@ -31162,7 +31162,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
         <v>5.127625437558785</v>
@@ -31211,16 +31211,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
         <v>81.51770992143554</v>
@@ -31229,7 +31229,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
         <v>25.93173355231669</v>
@@ -31524,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S8" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T8" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31603,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31633,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31676,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31697,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31843,7 +31843,7 @@
         <v>92.92795392295722</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>158.8286746010638</v>
       </c>
       <c r="L12" t="n">
         <v>213.5647536769879</v>
@@ -31855,10 +31855,10 @@
         <v>223.6305670857286</v>
       </c>
       <c r="O12" t="n">
-        <v>194.586051802294</v>
+        <v>227.447502299057</v>
       </c>
       <c r="P12" t="n">
-        <v>187.8230935377982</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>125.5547639837401</v>
@@ -32317,19 +32317,19 @@
         <v>92.94652331792145</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L18" t="n">
         <v>213.6074294068846</v>
       </c>
       <c r="M18" t="n">
-        <v>195.1915961429192</v>
+        <v>234.5348588931663</v>
       </c>
       <c r="N18" t="n">
         <v>223.7425370544813</v>
       </c>
       <c r="O18" t="n">
-        <v>234.0685228367896</v>
+        <v>173.7062864061541</v>
       </c>
       <c r="P18" t="n">
         <v>187.8606254220168</v>
@@ -32554,7 +32554,7 @@
         <v>92.94652331792145</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L21" t="n">
         <v>213.6074294068846</v>
@@ -32563,10 +32563,10 @@
         <v>234.5348588931663</v>
       </c>
       <c r="N21" t="n">
-        <v>223.7425370544813</v>
+        <v>163.3803006238458</v>
       </c>
       <c r="O21" t="n">
-        <v>194.7252600865425</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P21" t="n">
         <v>187.8606254220168</v>
@@ -33031,13 +33031,13 @@
         <v>158.8604126547474</v>
       </c>
       <c r="L27" t="n">
-        <v>153.4646088746132</v>
+        <v>213.6074294068846</v>
       </c>
       <c r="M27" t="n">
         <v>234.6468288619191</v>
       </c>
       <c r="N27" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909627</v>
       </c>
       <c r="O27" t="n">
         <v>234.0685228367896</v>
@@ -33268,10 +33268,10 @@
         <v>158.8604126547474</v>
       </c>
       <c r="L30" t="n">
-        <v>213.6074294068846</v>
+        <v>153.4646088746132</v>
       </c>
       <c r="M30" t="n">
-        <v>174.5040083296477</v>
+        <v>234.6468288619191</v>
       </c>
       <c r="N30" t="n">
         <v>223.8545070232341</v>
@@ -33745,7 +33745,7 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5040083296477</v>
+        <v>228.3902263373342</v>
       </c>
       <c r="N36" t="n">
         <v>223.8545070232341</v>
@@ -33754,7 +33754,7 @@
         <v>234.0685228367896</v>
       </c>
       <c r="P36" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>125.5798530543979</v>
@@ -33982,10 +33982,10 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M39" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296477</v>
       </c>
       <c r="N39" t="n">
-        <v>163.7116864909626</v>
+        <v>223.8545070232341</v>
       </c>
       <c r="O39" t="n">
         <v>234.0685228367896</v>
@@ -34213,10 +34213,10 @@
         <v>92.94652331792145</v>
       </c>
       <c r="K42" t="n">
-        <v>158.8604126547474</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>213.6074294068846</v>
+        <v>174.2641666566375</v>
       </c>
       <c r="M42" t="n">
         <v>234.5348588931663</v>
@@ -34225,7 +34225,7 @@
         <v>223.7425370544813</v>
       </c>
       <c r="O42" t="n">
-        <v>173.7062864061541</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P42" t="n">
         <v>187.8606254220168</v>
@@ -34450,13 +34450,13 @@
         <v>92.94652331792145</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L45" t="n">
         <v>213.6074294068846</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5348588931663</v>
+        <v>174.1726224625309</v>
       </c>
       <c r="N45" t="n">
         <v>223.7425370544813</v>
@@ -34465,7 +34465,7 @@
         <v>234.0685228367896</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5173626717697</v>
+        <v>187.8606254220168</v>
       </c>
       <c r="Q45" t="n">
         <v>125.5798530543979</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>20.9872356267048</v>
       </c>
       <c r="L12" t="n">
         <v>75.01037389711374</v>
@@ -35503,10 +35503,10 @@
         <v>92.28885500239529</v>
       </c>
       <c r="O12" t="n">
-        <v>51.98980735784951</v>
+        <v>84.85125785461261</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346796</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.0189736803884</v>
       </c>
       <c r="L18" t="n">
         <v>75.05304962701041</v>
       </c>
       <c r="M18" t="n">
-        <v>53.05756222090091</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="N18" t="n">
         <v>92.40082497114798</v>
       </c>
       <c r="O18" t="n">
-        <v>91.47227839234512</v>
+        <v>31.11004196170966</v>
       </c>
       <c r="P18" t="n">
         <v>53.88621800768655</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.0189736803884</v>
       </c>
       <c r="L21" t="n">
         <v>75.05304962701041</v>
@@ -36211,10 +36211,10 @@
         <v>92.40082497114798</v>
       </c>
       <c r="N21" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051253</v>
       </c>
       <c r="O21" t="n">
-        <v>52.12901564209805</v>
+        <v>91.47227839234512</v>
       </c>
       <c r="P21" t="n">
         <v>53.88621800768655</v>
@@ -36679,13 +36679,13 @@
         <v>21.0189736803884</v>
       </c>
       <c r="L27" t="n">
-        <v>14.91022909473901</v>
+        <v>75.05304962701041</v>
       </c>
       <c r="M27" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="N27" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762937</v>
       </c>
       <c r="O27" t="n">
         <v>91.47227839234512</v>
@@ -36916,10 +36916,10 @@
         <v>21.0189736803884</v>
       </c>
       <c r="L30" t="n">
-        <v>75.05304962701041</v>
+        <v>14.91022909473901</v>
       </c>
       <c r="M30" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N30" t="n">
         <v>92.51279493990077</v>
@@ -37393,7 +37393,7 @@
         <v>75.05304962701041</v>
       </c>
       <c r="M36" t="n">
-        <v>32.36997440762937</v>
+        <v>86.25619241531591</v>
       </c>
       <c r="N36" t="n">
         <v>92.51279493990077</v>
@@ -37402,7 +37402,7 @@
         <v>91.47227839234512</v>
       </c>
       <c r="P36" t="n">
-        <v>53.88621800768655</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>54.39369316462222</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O38" t="n">
         <v>79.70147439467294</v>
@@ -37630,10 +37630,10 @@
         <v>75.05304962701041</v>
       </c>
       <c r="M39" t="n">
-        <v>92.51279493990074</v>
+        <v>32.36997440762937</v>
       </c>
       <c r="N39" t="n">
-        <v>32.36997440762929</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O39" t="n">
         <v>91.47227839234512</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.0189736803884</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701041</v>
+        <v>35.70978687676335</v>
       </c>
       <c r="M42" t="n">
         <v>92.40082497114798</v>
@@ -37873,7 +37873,7 @@
         <v>92.40082497114798</v>
       </c>
       <c r="O42" t="n">
-        <v>31.11004196170966</v>
+        <v>91.47227839234512</v>
       </c>
       <c r="P42" t="n">
         <v>53.88621800768655</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.0189736803884</v>
       </c>
       <c r="L45" t="n">
         <v>75.05304962701041</v>
       </c>
       <c r="M45" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051253</v>
       </c>
       <c r="N45" t="n">
         <v>92.40082497114798</v>
@@ -38113,7 +38113,7 @@
         <v>91.47227839234512</v>
       </c>
       <c r="P45" t="n">
-        <v>14.54295525743947</v>
+        <v>53.88621800768655</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
